--- a/pITD-pion/expdata/1002.xlsx
+++ b/pITD-pion/expdata/1002.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,20 +8,121 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/barryp/work/JAM/fitpack2/database/pITD-pion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A441664-1049-784F-AB7B-2A88E340ACC5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E700FBFC-F624-9841-B257-EE0F57D3354F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5500" yWindow="4260" windowWidth="26440" windowHeight="15440"/>
+    <workbookView xWindow="7420" yWindow="8540" windowWidth="26440" windowHeight="15440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1002" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="32">
+  <si>
+    <t>Nf</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>p [2pi/L]</t>
+  </si>
+  <si>
+    <t>z [a]</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>nu</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>obs</t>
+  </si>
+  <si>
+    <t>stat_1</t>
+  </si>
+  <si>
+    <t>stat_2</t>
+  </si>
+  <si>
+    <t>stat_3</t>
+  </si>
+  <si>
+    <t>stat_4</t>
+  </si>
+  <si>
+    <t>stat_5</t>
+  </si>
+  <si>
+    <t>stat_6</t>
+  </si>
+  <si>
+    <t>stat_7</t>
+  </si>
+  <si>
+    <t>stat_8</t>
+  </si>
+  <si>
+    <t>stat_9</t>
+  </si>
+  <si>
+    <t>stat_10</t>
+  </si>
+  <si>
+    <t>stat_11</t>
+  </si>
+  <si>
+    <t>stat_12</t>
+  </si>
+  <si>
+    <t>stat_13</t>
+  </si>
+  <si>
+    <t>stat_14</t>
+  </si>
+  <si>
+    <t>stat_15</t>
+  </si>
+  <si>
+    <t>stat_16</t>
+  </si>
+  <si>
+    <t>stat_17</t>
+  </si>
+  <si>
+    <t>stat_18</t>
+  </si>
+  <si>
+    <t>2+1</t>
+  </si>
+  <si>
+    <t>Re(rpITD)</t>
+  </si>
+  <si>
+    <t>mpi [MeV]</t>
+  </si>
+  <si>
+    <t>a [fm]</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -152,6 +253,12 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -854,1238 +961,1801 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AD19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A1">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="B1">
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" t="s">
+        <v>20</v>
+      </c>
+      <c r="X1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>415</v>
+      </c>
+      <c r="B2">
+        <v>0.127</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2">
+        <v>24</v>
+      </c>
+      <c r="E2">
+        <v>64</v>
+      </c>
+      <c r="F2">
+        <f>D2^3*E2</f>
+        <v>884736</v>
+      </c>
+      <c r="G2">
         <v>1</v>
       </c>
-      <c r="C1">
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <f>B2*H2</f>
+        <v>0.127</v>
+      </c>
+      <c r="J2">
         <v>0.261799</v>
       </c>
-      <c r="D1">
+      <c r="K2">
         <v>0.99656500000000003</v>
       </c>
-      <c r="E1">
-        <v>0</v>
-      </c>
-      <c r="F1">
-        <v>0</v>
-      </c>
-      <c r="G1">
+      <c r="L2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="H1">
-        <v>0</v>
-      </c>
-      <c r="I1">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="J1">
+      <c r="R2">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="K1">
-        <v>0</v>
-      </c>
-      <c r="L1">
-        <v>0</v>
-      </c>
-      <c r="M1">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="N1">
-        <v>0</v>
-      </c>
-      <c r="O1">
-        <v>0</v>
-      </c>
-      <c r="P1">
-        <v>0</v>
-      </c>
-      <c r="Q1">
-        <v>0</v>
-      </c>
-      <c r="R1">
-        <v>0</v>
-      </c>
-      <c r="S1">
-        <v>0</v>
-      </c>
-      <c r="T1">
-        <v>0</v>
-      </c>
-      <c r="U1">
-        <v>0</v>
-      </c>
-      <c r="V1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>0.52359900000000004</v>
-      </c>
-      <c r="D2">
-        <v>0.98895900000000003</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>1.2999999999999999E-5</v>
-      </c>
-      <c r="G2">
-        <v>3.9999999999999998E-6</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>2.9E-5</v>
-      </c>
-      <c r="J2">
-        <v>-4.1E-5</v>
-      </c>
-      <c r="K2">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="L2">
-        <v>1.2E-5</v>
-      </c>
-      <c r="M2">
-        <v>-4.5000000000000003E-5</v>
-      </c>
-      <c r="N2">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="O2">
-        <v>7.9999999999999996E-6</v>
-      </c>
-      <c r="P2">
-        <v>-4.8999999999999998E-5</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>3.9999999999999998E-6</v>
-      </c>
       <c r="S2">
-        <v>-5.0000000000000002E-5</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>9.9999999999999995E-7</v>
+        <v>0</v>
       </c>
       <c r="U2">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="V2">
-        <v>-5.3000000000000001E-5</v>
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>3</v>
+        <v>415</v>
       </c>
       <c r="B3">
+        <v>0.127</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3">
+        <v>24</v>
+      </c>
+      <c r="E3">
+        <v>64</v>
+      </c>
+      <c r="F3">
+        <f>D3^3*E3</f>
+        <v>884736</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
         <v>1</v>
       </c>
-      <c r="C3">
-        <v>0.78539800000000004</v>
-      </c>
-      <c r="D3">
-        <v>1.005096</v>
-      </c>
-      <c r="E3">
+      <c r="I3">
+        <f t="shared" ref="I3:I19" si="0">B3*H3</f>
+        <v>0.127</v>
+      </c>
+      <c r="J3">
+        <v>0.52359900000000004</v>
+      </c>
+      <c r="K3">
+        <v>0.98895900000000003</v>
+      </c>
+      <c r="L3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>1.2999999999999999E-5</v>
+      </c>
+      <c r="O3">
+        <v>3.9999999999999998E-6</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>2.9E-5</v>
+      </c>
+      <c r="R3">
+        <v>-4.1E-5</v>
+      </c>
+      <c r="S3">
         <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="F3">
-        <v>3.9999999999999998E-6</v>
-      </c>
-      <c r="G3">
-        <v>2.405E-3</v>
-      </c>
-      <c r="H3">
-        <v>3.0000000000000001E-6</v>
-      </c>
-      <c r="I3">
-        <v>1.2300000000000001E-4</v>
-      </c>
-      <c r="J3">
-        <v>2.8670000000000002E-3</v>
-      </c>
-      <c r="K3">
-        <v>5.0000000000000004E-6</v>
-      </c>
-      <c r="L3">
-        <v>2.04E-4</v>
-      </c>
-      <c r="M3">
-        <v>2.552E-3</v>
-      </c>
-      <c r="N3">
-        <v>9.0000000000000002E-6</v>
-      </c>
-      <c r="O3">
-        <v>1.75E-4</v>
-      </c>
-      <c r="P3">
-        <v>2.091E-3</v>
-      </c>
-      <c r="Q3">
-        <v>7.9999999999999996E-6</v>
-      </c>
-      <c r="R3">
-        <v>1.45E-4</v>
-      </c>
-      <c r="S3">
-        <v>1.6149999999999999E-3</v>
       </c>
       <c r="T3">
         <v>1.2E-5</v>
       </c>
       <c r="U3">
+        <v>-4.5000000000000003E-5</v>
+      </c>
+      <c r="V3">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="W3">
+        <v>7.9999999999999996E-6</v>
+      </c>
+      <c r="X3">
+        <v>-4.8999999999999998E-5</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>3.9999999999999998E-6</v>
+      </c>
+      <c r="AA3">
+        <v>-5.0000000000000002E-5</v>
+      </c>
+      <c r="AB3">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="AC3">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="AD3">
+        <v>-5.3000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>415</v>
+      </c>
+      <c r="B4">
+        <v>0.127</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4">
+        <v>24</v>
+      </c>
+      <c r="E4">
+        <v>64</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F4:F19" si="1">D4^3*E4</f>
+        <v>884736</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>0.127</v>
+      </c>
+      <c r="J4">
+        <v>0.78539800000000004</v>
+      </c>
+      <c r="K4">
+        <v>1.005096</v>
+      </c>
+      <c r="L4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="N4">
+        <v>3.9999999999999998E-6</v>
+      </c>
+      <c r="O4">
+        <v>2.405E-3</v>
+      </c>
+      <c r="P4">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="Q4">
+        <v>1.2300000000000001E-4</v>
+      </c>
+      <c r="R4">
+        <v>2.8670000000000002E-3</v>
+      </c>
+      <c r="S4">
+        <v>5.0000000000000004E-6</v>
+      </c>
+      <c r="T4">
+        <v>2.04E-4</v>
+      </c>
+      <c r="U4">
+        <v>2.552E-3</v>
+      </c>
+      <c r="V4">
+        <v>9.0000000000000002E-6</v>
+      </c>
+      <c r="W4">
+        <v>1.75E-4</v>
+      </c>
+      <c r="X4">
+        <v>2.091E-3</v>
+      </c>
+      <c r="Y4">
+        <v>7.9999999999999996E-6</v>
+      </c>
+      <c r="Z4">
+        <v>1.45E-4</v>
+      </c>
+      <c r="AA4">
+        <v>1.6149999999999999E-3</v>
+      </c>
+      <c r="AB4">
+        <v>1.2E-5</v>
+      </c>
+      <c r="AC4">
         <v>1.12E-4</v>
       </c>
-      <c r="V3">
+      <c r="AD4">
         <v>1.3489999999999999E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A4">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>415</v>
+      </c>
+      <c r="B5">
+        <v>0.127</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5">
+        <v>24</v>
+      </c>
+      <c r="E5">
+        <v>64</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>884736</v>
+      </c>
+      <c r="G5">
         <v>1</v>
       </c>
-      <c r="B4">
+      <c r="H5">
         <v>2</v>
       </c>
-      <c r="C4">
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>0.254</v>
+      </c>
+      <c r="J5">
         <v>0.52359900000000004</v>
       </c>
-      <c r="D4">
+      <c r="K5">
         <v>0.98570400000000002</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
+      <c r="L5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
         <v>3.0000000000000001E-6</v>
       </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="J4">
+      <c r="R5">
         <v>3.9999999999999998E-6</v>
       </c>
-      <c r="K4">
+      <c r="S5">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="L4">
+      <c r="T5">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="M4">
+      <c r="U5">
         <v>3.0000000000000001E-6</v>
       </c>
-      <c r="N4">
+      <c r="V5">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="O4">
+      <c r="W5">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="P4">
+      <c r="X5">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="Q4">
+      <c r="Y5">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="R4">
+      <c r="Z5">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="S4">
+      <c r="AA5">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="T4">
+      <c r="AB5">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="U4">
+      <c r="AC5">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="V4">
+      <c r="AD5">
         <v>3.0000000000000001E-6</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A5">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>415</v>
+      </c>
+      <c r="B6">
+        <v>0.127</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>64</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>884736</v>
+      </c>
+      <c r="G6">
         <v>2</v>
       </c>
-      <c r="B5">
+      <c r="H6">
         <v>2</v>
       </c>
-      <c r="C5">
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>0.254</v>
+      </c>
+      <c r="J6">
         <v>1.0471980000000001</v>
       </c>
-      <c r="D5">
+      <c r="K6">
         <v>0.95383300000000004</v>
       </c>
-      <c r="E5">
+      <c r="L6" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="F5">
+      <c r="N6">
         <v>2.9E-5</v>
       </c>
-      <c r="G5">
+      <c r="O6">
         <v>1.2300000000000001E-4</v>
       </c>
-      <c r="H5">
+      <c r="P6">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="I5">
+      <c r="Q6">
         <v>2.3599999999999999E-4</v>
       </c>
-      <c r="J5">
+      <c r="R6">
         <v>-4.6E-5</v>
       </c>
-      <c r="K5">
+      <c r="S6">
         <v>3.9999999999999998E-6</v>
       </c>
-      <c r="L5">
+      <c r="T6">
         <v>1.13E-4</v>
       </c>
-      <c r="M5">
+      <c r="U6">
         <v>-5.5999999999999999E-5</v>
       </c>
-      <c r="N5">
+      <c r="V6">
         <v>6.0000000000000002E-6</v>
       </c>
-      <c r="O5">
+      <c r="W6">
         <v>9.8999999999999994E-5</v>
       </c>
-      <c r="P5">
+      <c r="X6">
         <v>-5.5000000000000002E-5</v>
       </c>
-      <c r="Q5">
+      <c r="Y6">
         <v>6.0000000000000002E-6</v>
       </c>
-      <c r="R5">
+      <c r="Z6">
         <v>9.5000000000000005E-5</v>
       </c>
-      <c r="S5">
+      <c r="AA6">
         <v>-5.3000000000000001E-5</v>
       </c>
-      <c r="T5">
+      <c r="AB6">
         <v>7.9999999999999996E-6</v>
       </c>
-      <c r="U5">
+      <c r="AC6">
         <v>9.0000000000000006E-5</v>
       </c>
-      <c r="V5">
+      <c r="AD6">
         <v>-4.8000000000000001E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A6">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>415</v>
+      </c>
+      <c r="B7">
+        <v>0.127</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>64</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>884736</v>
+      </c>
+      <c r="G7">
         <v>3</v>
       </c>
-      <c r="B6">
+      <c r="H7">
         <v>2</v>
       </c>
-      <c r="C6">
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>0.254</v>
+      </c>
+      <c r="J7">
         <v>1.5707960000000001</v>
       </c>
-      <c r="D6">
+      <c r="K7">
         <v>0.97234600000000004</v>
       </c>
-      <c r="E6">
+      <c r="L7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M7">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="F6">
+      <c r="N7">
         <v>-4.1E-5</v>
       </c>
-      <c r="G6">
+      <c r="O7">
         <v>2.8670000000000002E-3</v>
       </c>
-      <c r="H6">
+      <c r="P7">
         <v>3.9999999999999998E-6</v>
       </c>
-      <c r="I6">
+      <c r="Q7">
         <v>-4.6E-5</v>
       </c>
-      <c r="J6">
+      <c r="R7">
         <v>8.9169999999999996E-3</v>
       </c>
-      <c r="K6">
+      <c r="S7">
         <v>7.9999999999999996E-6</v>
       </c>
-      <c r="L6">
+      <c r="T7">
         <v>2.3800000000000001E-4</v>
       </c>
-      <c r="M6">
+      <c r="U7">
         <v>8.4589999999999995E-3</v>
       </c>
-      <c r="N6">
+      <c r="V7">
         <v>1.4E-5</v>
       </c>
-      <c r="O6">
+      <c r="W7">
         <v>2.81E-4</v>
       </c>
-      <c r="P6">
+      <c r="X7">
         <v>7.6959999999999997E-3</v>
       </c>
-      <c r="Q6">
+      <c r="Y7">
         <v>1.1E-5</v>
       </c>
-      <c r="R6">
+      <c r="Z7">
         <v>2.8299999999999999E-4</v>
       </c>
-      <c r="S6">
+      <c r="AA7">
         <v>6.8970000000000004E-3</v>
       </c>
-      <c r="T6">
+      <c r="AB7">
         <v>1.5999999999999999E-5</v>
       </c>
-      <c r="U6">
+      <c r="AC7">
         <v>2.7399999999999999E-4</v>
       </c>
-      <c r="V6">
+      <c r="AD7">
         <v>6.6449999999999999E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A7">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>415</v>
+      </c>
+      <c r="B8">
+        <v>0.127</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8">
+        <v>24</v>
+      </c>
+      <c r="E8">
+        <v>64</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>884736</v>
+      </c>
+      <c r="G8">
         <v>1</v>
       </c>
-      <c r="B7">
+      <c r="H8">
         <v>3</v>
       </c>
-      <c r="C7">
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="J8">
         <v>0.78539800000000004</v>
       </c>
-      <c r="D7">
+      <c r="K8">
         <v>0.96637700000000004</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
+      <c r="L8" t="s">
+        <v>29</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="G7">
+      <c r="O8">
         <v>5.0000000000000004E-6</v>
       </c>
-      <c r="H7">
+      <c r="P8">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="I7">
+      <c r="Q8">
         <v>3.9999999999999998E-6</v>
       </c>
-      <c r="J7">
+      <c r="R8">
         <v>7.9999999999999996E-6</v>
       </c>
-      <c r="K7">
+      <c r="S8">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="L7">
+      <c r="T8">
         <v>5.0000000000000004E-6</v>
       </c>
-      <c r="M7">
+      <c r="U8">
         <v>7.9999999999999996E-6</v>
       </c>
-      <c r="N7">
+      <c r="V8">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="O7">
+      <c r="W8">
         <v>5.0000000000000004E-6</v>
       </c>
-      <c r="P7">
+      <c r="X8">
         <v>6.9999999999999999E-6</v>
       </c>
-      <c r="Q7">
+      <c r="Y8">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="R7">
+      <c r="Z8">
         <v>6.0000000000000002E-6</v>
       </c>
-      <c r="S7">
+      <c r="AA8">
         <v>6.9999999999999999E-6</v>
       </c>
-      <c r="T7">
+      <c r="AB8">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="U7">
+      <c r="AC8">
         <v>6.0000000000000002E-6</v>
       </c>
-      <c r="V7">
+      <c r="AD8">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A8">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>415</v>
+      </c>
+      <c r="B9">
+        <v>0.127</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9">
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <v>64</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>884736</v>
+      </c>
+      <c r="G9">
         <v>2</v>
       </c>
-      <c r="B8">
+      <c r="H9">
         <v>3</v>
       </c>
-      <c r="C8">
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="J9">
         <v>1.5707960000000001</v>
       </c>
-      <c r="D8">
+      <c r="K9">
         <v>0.88652200000000003</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
+      <c r="L9" t="s">
+        <v>29</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
         <v>1.2E-5</v>
       </c>
-      <c r="G8">
+      <c r="O9">
         <v>2.04E-4</v>
       </c>
-      <c r="H8">
+      <c r="P9">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="I8">
+      <c r="Q9">
         <v>1.13E-4</v>
       </c>
-      <c r="J8">
+      <c r="R9">
         <v>2.3800000000000001E-4</v>
       </c>
-      <c r="K8">
+      <c r="S9">
         <v>5.0000000000000004E-6</v>
       </c>
-      <c r="L8">
+      <c r="T9">
         <v>2.1000000000000001E-4</v>
       </c>
-      <c r="M8">
+      <c r="U9">
         <v>2.6800000000000001E-4</v>
       </c>
-      <c r="N8">
+      <c r="V9">
         <v>9.0000000000000002E-6</v>
       </c>
-      <c r="O8">
+      <c r="W9">
         <v>2.3499999999999999E-4</v>
       </c>
-      <c r="P8">
+      <c r="X9">
         <v>3.0600000000000001E-4</v>
       </c>
-      <c r="Q8">
+      <c r="Y9">
         <v>9.0000000000000002E-6</v>
       </c>
-      <c r="R8">
+      <c r="Z9">
         <v>2.6200000000000003E-4</v>
       </c>
-      <c r="S8">
+      <c r="AA9">
         <v>3.3E-4</v>
       </c>
-      <c r="T8">
+      <c r="AB9">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="U8">
+      <c r="AC9">
         <v>2.81E-4</v>
       </c>
-      <c r="V8">
+      <c r="AD9">
         <v>3.6600000000000001E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A9">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>415</v>
+      </c>
+      <c r="B10">
+        <v>0.127</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10">
+        <v>24</v>
+      </c>
+      <c r="E10">
+        <v>64</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>884736</v>
+      </c>
+      <c r="G10">
         <v>3</v>
       </c>
-      <c r="B9">
+      <c r="H10">
         <v>3</v>
       </c>
-      <c r="C9">
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="J10">
         <v>2.3561939999999999</v>
       </c>
-      <c r="D9">
+      <c r="K10">
         <v>0.88644199999999995</v>
       </c>
-      <c r="E9">
+      <c r="L10" t="s">
+        <v>29</v>
+      </c>
+      <c r="M10">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="F9">
+      <c r="N10">
         <v>-4.5000000000000003E-5</v>
       </c>
-      <c r="G9">
+      <c r="O10">
         <v>2.552E-3</v>
       </c>
-      <c r="H9">
+      <c r="P10">
         <v>3.0000000000000001E-6</v>
       </c>
-      <c r="I9">
+      <c r="Q10">
         <v>-5.5999999999999999E-5</v>
       </c>
-      <c r="J9">
+      <c r="R10">
         <v>8.4589999999999995E-3</v>
       </c>
-      <c r="K9">
+      <c r="S10">
         <v>7.9999999999999996E-6</v>
       </c>
-      <c r="L9">
+      <c r="T10">
         <v>2.6800000000000001E-4</v>
       </c>
-      <c r="M9">
+      <c r="U10">
         <v>8.352E-3</v>
       </c>
-      <c r="N9">
+      <c r="V10">
         <v>1.5E-5</v>
       </c>
-      <c r="O9">
+      <c r="W10">
         <v>3.4900000000000003E-4</v>
       </c>
-      <c r="P9">
+      <c r="X10">
         <v>8.012E-3</v>
       </c>
-      <c r="Q9">
+      <c r="Y10">
         <v>1.4E-5</v>
       </c>
-      <c r="R9">
+      <c r="Z10">
         <v>3.9500000000000001E-4</v>
       </c>
-      <c r="S9">
+      <c r="AA10">
         <v>7.5770000000000004E-3</v>
       </c>
-      <c r="T9">
+      <c r="AB10">
         <v>1.5999999999999999E-5</v>
       </c>
-      <c r="U9">
+      <c r="AC10">
         <v>4.2499999999999998E-4</v>
       </c>
-      <c r="V9">
+      <c r="AD10">
         <v>7.6579999999999999E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A10">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>415</v>
+      </c>
+      <c r="B11">
+        <v>0.127</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>64</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>884736</v>
+      </c>
+      <c r="G11">
         <v>1</v>
       </c>
-      <c r="B10">
+      <c r="H11">
         <v>4</v>
       </c>
-      <c r="C10">
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="J11">
         <v>1.0471980000000001</v>
       </c>
-      <c r="D10">
+      <c r="K11">
         <v>0.93772200000000006</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
+      <c r="L11" t="s">
+        <v>29</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="G10">
+      <c r="O11">
         <v>9.0000000000000002E-6</v>
       </c>
-      <c r="H10">
+      <c r="P11">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="I10">
+      <c r="Q11">
         <v>6.0000000000000002E-6</v>
       </c>
-      <c r="J10">
+      <c r="R11">
         <v>1.4E-5</v>
       </c>
-      <c r="K10">
+      <c r="S11">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="L10">
+      <c r="T11">
         <v>9.0000000000000002E-6</v>
       </c>
-      <c r="M10">
+      <c r="U11">
         <v>1.5E-5</v>
       </c>
-      <c r="N10">
+      <c r="V11">
         <v>3.0000000000000001E-6</v>
       </c>
-      <c r="O10">
+      <c r="W11">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="P10">
+      <c r="X11">
         <v>1.4E-5</v>
       </c>
-      <c r="Q10">
+      <c r="Y11">
         <v>3.9999999999999998E-6</v>
       </c>
-      <c r="R10">
+      <c r="Z11">
         <v>1.2E-5</v>
       </c>
-      <c r="S10">
+      <c r="AA11">
         <v>1.5E-5</v>
       </c>
-      <c r="T10">
+      <c r="AB11">
         <v>3.9999999999999998E-6</v>
       </c>
-      <c r="U10">
+      <c r="AC11">
         <v>1.2999999999999999E-5</v>
       </c>
-      <c r="V10">
+      <c r="AD11">
         <v>2.1999999999999999E-5</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A11">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>415</v>
+      </c>
+      <c r="B12">
+        <v>0.127</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12">
+        <v>24</v>
+      </c>
+      <c r="E12">
+        <v>64</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>884736</v>
+      </c>
+      <c r="G12">
         <v>2</v>
       </c>
-      <c r="B11">
+      <c r="H12">
         <v>4</v>
       </c>
-      <c r="C11">
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="J12">
         <v>2.094395</v>
       </c>
-      <c r="D11">
+      <c r="K12">
         <v>0.79294799999999999</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
+      <c r="L12" t="s">
+        <v>29</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
         <v>7.9999999999999996E-6</v>
       </c>
-      <c r="G11">
+      <c r="O12">
         <v>1.75E-4</v>
       </c>
-      <c r="H11">
+      <c r="P12">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="I11">
+      <c r="Q12">
         <v>9.8999999999999994E-5</v>
       </c>
-      <c r="J11">
+      <c r="R12">
         <v>2.81E-4</v>
       </c>
-      <c r="K11">
+      <c r="S12">
         <v>5.0000000000000004E-6</v>
       </c>
-      <c r="L11">
+      <c r="T12">
         <v>2.3499999999999999E-4</v>
       </c>
-      <c r="M11">
+      <c r="U12">
         <v>3.4900000000000003E-4</v>
       </c>
-      <c r="N11">
+      <c r="V12">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="O11">
+      <c r="W12">
         <v>2.9E-4</v>
       </c>
-      <c r="P11">
+      <c r="X12">
         <v>4.3199999999999998E-4</v>
       </c>
-      <c r="Q11">
+      <c r="Y12">
         <v>1.1E-5</v>
       </c>
-      <c r="R11">
+      <c r="Z12">
         <v>3.4900000000000003E-4</v>
       </c>
-      <c r="S11">
+      <c r="AA12">
         <v>4.9299999999999995E-4</v>
       </c>
-      <c r="T11">
+      <c r="AB12">
         <v>1.2999999999999999E-5</v>
       </c>
-      <c r="U11">
+      <c r="AC12">
         <v>3.9599999999999998E-4</v>
       </c>
-      <c r="V11">
+      <c r="AD12">
         <v>5.6499999999999996E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A12">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>415</v>
+      </c>
+      <c r="B13">
+        <v>0.127</v>
+      </c>
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>64</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>884736</v>
+      </c>
+      <c r="G13">
         <v>3</v>
       </c>
-      <c r="B12">
+      <c r="H13">
         <v>4</v>
       </c>
-      <c r="C12">
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="J13">
         <v>3.1415929999999999</v>
       </c>
-      <c r="D12">
+      <c r="K13">
         <v>0.77115199999999995</v>
       </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
+      <c r="L13" t="s">
+        <v>29</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
         <v>-4.8999999999999998E-5</v>
       </c>
-      <c r="G12">
+      <c r="O13">
         <v>2.091E-3</v>
       </c>
-      <c r="H12">
+      <c r="P13">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="I12">
+      <c r="Q13">
         <v>-5.5000000000000002E-5</v>
       </c>
-      <c r="J12">
+      <c r="R13">
         <v>7.6959999999999997E-3</v>
       </c>
-      <c r="K12">
+      <c r="S13">
         <v>6.9999999999999999E-6</v>
       </c>
-      <c r="L12">
+      <c r="T13">
         <v>3.0600000000000001E-4</v>
       </c>
-      <c r="M12">
+      <c r="U13">
         <v>8.012E-3</v>
       </c>
-      <c r="N12">
+      <c r="V13">
         <v>1.4E-5</v>
       </c>
-      <c r="O12">
+      <c r="W13">
         <v>4.3199999999999998E-4</v>
       </c>
-      <c r="P12">
+      <c r="X13">
         <v>8.2769999999999996E-3</v>
       </c>
-      <c r="Q12">
+      <c r="Y13">
         <v>1.8E-5</v>
       </c>
-      <c r="R12">
+      <c r="Z13">
         <v>5.3899999999999998E-4</v>
       </c>
-      <c r="S12">
+      <c r="AA13">
         <v>8.4440000000000001E-3</v>
       </c>
-      <c r="T12">
+      <c r="AB13">
         <v>1.5999999999999999E-5</v>
       </c>
-      <c r="U12">
+      <c r="AC13">
         <v>6.2200000000000005E-4</v>
       </c>
-      <c r="V12">
+      <c r="AD13">
         <v>9.0900000000000009E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A13">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>415</v>
+      </c>
+      <c r="B14">
+        <v>0.127</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14">
+        <v>24</v>
+      </c>
+      <c r="E14">
+        <v>64</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>884736</v>
+      </c>
+      <c r="G14">
         <v>1</v>
       </c>
-      <c r="B13">
+      <c r="H14">
         <v>5</v>
       </c>
-      <c r="C13">
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="J14">
         <v>1.308997</v>
       </c>
-      <c r="D13">
+      <c r="K14">
         <v>0.89705999999999997</v>
       </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
+      <c r="L14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
         <v>7.9999999999999996E-6</v>
       </c>
-      <c r="H13">
+      <c r="P14">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="I13">
+      <c r="Q14">
         <v>6.0000000000000002E-6</v>
       </c>
-      <c r="J13">
+      <c r="R14">
         <v>1.1E-5</v>
       </c>
-      <c r="K13">
+      <c r="S14">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="L13">
+      <c r="T14">
         <v>9.0000000000000002E-6</v>
       </c>
-      <c r="M13">
+      <c r="U14">
         <v>1.4E-5</v>
       </c>
-      <c r="N13">
+      <c r="V14">
         <v>3.9999999999999998E-6</v>
       </c>
-      <c r="O13">
+      <c r="W14">
         <v>1.1E-5</v>
       </c>
-      <c r="P13">
+      <c r="X14">
         <v>1.8E-5</v>
       </c>
-      <c r="Q13">
+      <c r="Y14">
         <v>6.9999999999999999E-6</v>
       </c>
-      <c r="R13">
+      <c r="Z14">
         <v>1.5E-5</v>
       </c>
-      <c r="S13">
+      <c r="AA14">
         <v>2.0999999999999999E-5</v>
       </c>
-      <c r="T13">
+      <c r="AB14">
         <v>6.9999999999999999E-6</v>
       </c>
-      <c r="U13">
+      <c r="AC14">
         <v>1.5999999999999999E-5</v>
       </c>
-      <c r="V13">
+      <c r="AD14">
         <v>2.8E-5</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A14">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>415</v>
+      </c>
+      <c r="B15">
+        <v>0.127</v>
+      </c>
+      <c r="C15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15">
+        <v>24</v>
+      </c>
+      <c r="E15">
+        <v>64</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>884736</v>
+      </c>
+      <c r="G15">
         <v>2</v>
       </c>
-      <c r="B14">
+      <c r="H15">
         <v>5</v>
       </c>
-      <c r="C14">
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="J15">
         <v>2.6179939999999999</v>
       </c>
-      <c r="D14">
+      <c r="K15">
         <v>0.68102700000000005</v>
       </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
+      <c r="L15" t="s">
+        <v>29</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
         <v>3.9999999999999998E-6</v>
       </c>
-      <c r="G14">
+      <c r="O15">
         <v>1.45E-4</v>
       </c>
-      <c r="H14">
+      <c r="P15">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="I14">
+      <c r="Q15">
         <v>9.5000000000000005E-5</v>
       </c>
-      <c r="J14">
+      <c r="R15">
         <v>2.8299999999999999E-4</v>
       </c>
-      <c r="K14">
+      <c r="S15">
         <v>6.0000000000000002E-6</v>
       </c>
-      <c r="L14">
+      <c r="T15">
         <v>2.6200000000000003E-4</v>
       </c>
-      <c r="M14">
+      <c r="U15">
         <v>3.9500000000000001E-4</v>
       </c>
-      <c r="N14">
+      <c r="V15">
         <v>1.2E-5</v>
       </c>
-      <c r="O14">
+      <c r="W15">
         <v>3.4900000000000003E-4</v>
       </c>
-      <c r="P14">
+      <c r="X15">
         <v>5.3899999999999998E-4</v>
       </c>
-      <c r="Q14">
+      <c r="Y15">
         <v>1.5E-5</v>
       </c>
-      <c r="R14">
+      <c r="Z15">
         <v>4.4999999999999999E-4</v>
       </c>
-      <c r="S14">
+      <c r="AA15">
         <v>6.5499999999999998E-4</v>
       </c>
-      <c r="T14">
+      <c r="AB15">
         <v>1.5999999999999999E-5</v>
       </c>
-      <c r="U14">
+      <c r="AC15">
         <v>5.3799999999999996E-4</v>
       </c>
-      <c r="V14">
+      <c r="AD15">
         <v>7.8299999999999995E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A15">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>415</v>
+      </c>
+      <c r="B16">
+        <v>0.127</v>
+      </c>
+      <c r="C16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>64</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>884736</v>
+      </c>
+      <c r="G16">
         <v>3</v>
       </c>
-      <c r="B15">
+      <c r="H16">
         <v>5</v>
       </c>
-      <c r="C15">
+      <c r="I16">
+        <f t="shared" si="0"/>
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="J16">
         <v>3.9269910000000001</v>
       </c>
-      <c r="D15">
+      <c r="K16">
         <v>0.65257900000000002</v>
       </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
+      <c r="L16" t="s">
+        <v>29</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
         <v>-5.0000000000000002E-5</v>
       </c>
-      <c r="G15">
+      <c r="O16">
         <v>1.6149999999999999E-3</v>
       </c>
-      <c r="H15">
+      <c r="P16">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="I15">
+      <c r="Q16">
         <v>-5.3000000000000001E-5</v>
       </c>
-      <c r="J15">
+      <c r="R16">
         <v>6.8970000000000004E-3</v>
       </c>
-      <c r="K15">
+      <c r="S16">
         <v>6.9999999999999999E-6</v>
       </c>
-      <c r="L15">
+      <c r="T16">
         <v>3.3E-4</v>
       </c>
-      <c r="M15">
+      <c r="U16">
         <v>7.5770000000000004E-3</v>
       </c>
-      <c r="N15">
+      <c r="V16">
         <v>1.5E-5</v>
       </c>
-      <c r="O15">
+      <c r="W16">
         <v>4.9299999999999995E-4</v>
       </c>
-      <c r="P15">
+      <c r="X16">
         <v>8.4440000000000001E-3</v>
       </c>
-      <c r="Q15">
+      <c r="Y16">
         <v>2.0999999999999999E-5</v>
       </c>
-      <c r="R15">
+      <c r="Z16">
         <v>6.5499999999999998E-4</v>
       </c>
-      <c r="S15">
+      <c r="AA16">
         <v>9.3880000000000005E-3</v>
       </c>
-      <c r="T15">
+      <c r="AB16">
         <v>1.5999999999999999E-5</v>
       </c>
-      <c r="U15">
+      <c r="AC16">
         <v>7.9699999999999997E-4</v>
       </c>
-      <c r="V15">
+      <c r="AD16">
         <v>1.09E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A16">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>415</v>
+      </c>
+      <c r="B17">
+        <v>0.127</v>
+      </c>
+      <c r="C17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>64</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>884736</v>
+      </c>
+      <c r="G17">
         <v>1</v>
       </c>
-      <c r="B16">
+      <c r="H17">
         <v>6</v>
       </c>
-      <c r="C16">
+      <c r="I17">
+        <f t="shared" si="0"/>
+        <v>0.76200000000000001</v>
+      </c>
+      <c r="J17">
         <v>1.5707960000000001</v>
       </c>
-      <c r="D16">
+      <c r="K17">
         <v>0.84979099999999996</v>
       </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
+      <c r="L17" t="s">
+        <v>29</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="G16">
+      <c r="O17">
         <v>1.2E-5</v>
       </c>
-      <c r="H16">
+      <c r="P17">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="I16">
+      <c r="Q17">
         <v>7.9999999999999996E-6</v>
       </c>
-      <c r="J16">
+      <c r="R17">
         <v>1.5999999999999999E-5</v>
       </c>
-      <c r="K16">
+      <c r="S17">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="L16">
+      <c r="T17">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="M16">
+      <c r="U17">
         <v>1.5999999999999999E-5</v>
       </c>
-      <c r="N16">
+      <c r="V17">
         <v>3.9999999999999998E-6</v>
       </c>
-      <c r="O16">
+      <c r="W17">
         <v>1.2999999999999999E-5</v>
       </c>
-      <c r="P16">
+      <c r="X17">
         <v>1.5999999999999999E-5</v>
       </c>
-      <c r="Q16">
+      <c r="Y17">
         <v>6.9999999999999999E-6</v>
       </c>
-      <c r="R16">
+      <c r="Z17">
         <v>1.5999999999999999E-5</v>
       </c>
-      <c r="S16">
+      <c r="AA17">
         <v>1.5999999999999999E-5</v>
       </c>
-      <c r="T16">
+      <c r="AB17">
         <v>1.1E-5</v>
       </c>
-      <c r="U16">
+      <c r="AC17">
         <v>1.9000000000000001E-5</v>
       </c>
-      <c r="V16">
+      <c r="AD17">
         <v>2.0999999999999999E-5</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A17">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>415</v>
+      </c>
+      <c r="B18">
+        <v>0.127</v>
+      </c>
+      <c r="C18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18">
+        <v>24</v>
+      </c>
+      <c r="E18">
+        <v>64</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>884736</v>
+      </c>
+      <c r="G18">
         <v>2</v>
       </c>
-      <c r="B17">
+      <c r="H18">
         <v>6</v>
       </c>
-      <c r="C17">
+      <c r="I18">
+        <f t="shared" si="0"/>
+        <v>0.76200000000000001</v>
+      </c>
+      <c r="J18">
         <v>3.1415929999999999</v>
       </c>
-      <c r="D17">
+      <c r="K18">
         <v>0.56504500000000002</v>
       </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
+      <c r="L18" t="s">
+        <v>29</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="G17">
+      <c r="O18">
         <v>1.12E-4</v>
       </c>
-      <c r="H17">
+      <c r="P18">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="I17">
+      <c r="Q18">
         <v>9.0000000000000006E-5</v>
       </c>
-      <c r="J17">
+      <c r="R18">
         <v>2.7399999999999999E-4</v>
       </c>
-      <c r="K17">
+      <c r="S18">
         <v>6.0000000000000002E-6</v>
       </c>
-      <c r="L17">
+      <c r="T18">
         <v>2.81E-4</v>
       </c>
-      <c r="M17">
+      <c r="U18">
         <v>4.2499999999999998E-4</v>
       </c>
-      <c r="N17">
+      <c r="V18">
         <v>1.2999999999999999E-5</v>
       </c>
-      <c r="O17">
+      <c r="W18">
         <v>3.9599999999999998E-4</v>
       </c>
-      <c r="P17">
+      <c r="X18">
         <v>6.2200000000000005E-4</v>
       </c>
-      <c r="Q17">
+      <c r="Y18">
         <v>1.5999999999999999E-5</v>
       </c>
-      <c r="R17">
+      <c r="Z18">
         <v>5.3799999999999996E-4</v>
       </c>
-      <c r="S17">
+      <c r="AA18">
         <v>7.9699999999999997E-4</v>
       </c>
-      <c r="T17">
+      <c r="AB18">
         <v>1.9000000000000001E-5</v>
       </c>
-      <c r="U17">
+      <c r="AC18">
         <v>6.8000000000000005E-4</v>
       </c>
-      <c r="V17">
+      <c r="AD18">
         <v>9.9799999999999997E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A18">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>415</v>
+      </c>
+      <c r="B19">
+        <v>0.127</v>
+      </c>
+      <c r="C19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>64</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>884736</v>
+      </c>
+      <c r="G19">
         <v>3</v>
       </c>
-      <c r="B18">
+      <c r="H19">
         <v>6</v>
       </c>
-      <c r="C18">
+      <c r="I19">
+        <f t="shared" si="0"/>
+        <v>0.76200000000000001</v>
+      </c>
+      <c r="J19">
         <v>4.7123889999999999</v>
       </c>
-      <c r="D18">
+      <c r="K19">
         <v>0.56398300000000001</v>
       </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
+      <c r="L19" t="s">
+        <v>29</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
         <v>-5.3000000000000001E-5</v>
       </c>
-      <c r="G18">
+      <c r="O19">
         <v>1.3489999999999999E-3</v>
       </c>
-      <c r="H18">
+      <c r="P19">
         <v>3.0000000000000001E-6</v>
       </c>
-      <c r="I18">
+      <c r="Q19">
         <v>-4.8000000000000001E-5</v>
       </c>
-      <c r="J18">
+      <c r="R19">
         <v>6.6449999999999999E-3</v>
       </c>
-      <c r="K18">
+      <c r="S19">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="L18">
+      <c r="T19">
         <v>3.6600000000000001E-4</v>
       </c>
-      <c r="M18">
+      <c r="U19">
         <v>7.6579999999999999E-3</v>
       </c>
-      <c r="N18">
+      <c r="V19">
         <v>2.1999999999999999E-5</v>
       </c>
-      <c r="O18">
+      <c r="W19">
         <v>5.6499999999999996E-4</v>
       </c>
-      <c r="P18">
+      <c r="X19">
         <v>9.0900000000000009E-3</v>
       </c>
-      <c r="Q18">
+      <c r="Y19">
         <v>2.8E-5</v>
       </c>
-      <c r="R18">
+      <c r="Z19">
         <v>7.8299999999999995E-4</v>
       </c>
-      <c r="S18">
+      <c r="AA19">
         <v>1.09E-2</v>
       </c>
-      <c r="T18">
+      <c r="AB19">
         <v>2.0999999999999999E-5</v>
       </c>
-      <c r="U18">
+      <c r="AC19">
         <v>9.9799999999999997E-4</v>
       </c>
-      <c r="V18">
+      <c r="AD19">
         <v>1.3827000000000001E-2</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/pITD-pion/expdata/1002.xlsx
+++ b/pITD-pion/expdata/1002.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/barryp/work/JAM/fitpack2/database/pITD-pion/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/barryp/work/JAM/fitpack2/database/pITD-pion/expdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E700FBFC-F624-9841-B257-EE0F57D3354F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9573E19-F555-9D48-A23F-53FF81E19820}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7420" yWindow="8540" windowWidth="26440" windowHeight="15440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7420" yWindow="5880" windowWidth="26440" windowHeight="15440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1002" sheetId="1" r:id="rId1"/>
@@ -34,12 +34,6 @@
     <t>V</t>
   </si>
   <si>
-    <t>p [2pi/L]</t>
-  </si>
-  <si>
-    <t>z [a]</t>
-  </si>
-  <si>
     <t>z</t>
   </si>
   <si>
@@ -112,10 +106,16 @@
     <t>Re(rpITD)</t>
   </si>
   <si>
-    <t>mpi [MeV]</t>
-  </si>
-  <si>
-    <t>a [fm]</t>
+    <t>mpi</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>ZoA</t>
   </si>
 </sst>
 </file>
@@ -965,17 +965,17 @@
   <dimension ref="A1:AD19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -990,76 +990,76 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>14</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>15</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>16</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>17</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>18</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>19</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>20</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>23</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AC1" t="s">
         <v>24</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AD1" t="s">
         <v>25</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.2">
@@ -1070,7 +1070,7 @@
         <v>0.127</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D2">
         <v>24</v>
@@ -1099,7 +1099,7 @@
         <v>0.99656500000000003</v>
       </c>
       <c r="L2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>0.127</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D3">
         <v>24</v>
@@ -1193,7 +1193,7 @@
         <v>0.98895900000000003</v>
       </c>
       <c r="L3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -1258,7 +1258,7 @@
         <v>0.127</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D4">
         <v>24</v>
@@ -1287,7 +1287,7 @@
         <v>1.005096</v>
       </c>
       <c r="L4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M4">
         <v>9.9999999999999995E-7</v>
@@ -1352,7 +1352,7 @@
         <v>0.127</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D5">
         <v>24</v>
@@ -1381,7 +1381,7 @@
         <v>0.98570400000000002</v>
       </c>
       <c r="L5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -1446,7 +1446,7 @@
         <v>0.127</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D6">
         <v>24</v>
@@ -1475,7 +1475,7 @@
         <v>0.95383300000000004</v>
       </c>
       <c r="L6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M6">
         <v>9.9999999999999995E-7</v>
@@ -1540,7 +1540,7 @@
         <v>0.127</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D7">
         <v>24</v>
@@ -1569,7 +1569,7 @@
         <v>0.97234600000000004</v>
       </c>
       <c r="L7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M7">
         <v>9.9999999999999995E-7</v>
@@ -1634,7 +1634,7 @@
         <v>0.127</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D8">
         <v>24</v>
@@ -1663,7 +1663,7 @@
         <v>0.96637700000000004</v>
       </c>
       <c r="L8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -1728,7 +1728,7 @@
         <v>0.127</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D9">
         <v>24</v>
@@ -1757,7 +1757,7 @@
         <v>0.88652200000000003</v>
       </c>
       <c r="L9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -1822,7 +1822,7 @@
         <v>0.127</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D10">
         <v>24</v>
@@ -1851,7 +1851,7 @@
         <v>0.88644199999999995</v>
       </c>
       <c r="L10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M10">
         <v>9.9999999999999995E-7</v>
@@ -1916,7 +1916,7 @@
         <v>0.127</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D11">
         <v>24</v>
@@ -1945,7 +1945,7 @@
         <v>0.93772200000000006</v>
       </c>
       <c r="L11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -2010,7 +2010,7 @@
         <v>0.127</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D12">
         <v>24</v>
@@ -2039,7 +2039,7 @@
         <v>0.79294799999999999</v>
       </c>
       <c r="L12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -2104,7 +2104,7 @@
         <v>0.127</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D13">
         <v>24</v>
@@ -2133,7 +2133,7 @@
         <v>0.77115199999999995</v>
       </c>
       <c r="L13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -2198,7 +2198,7 @@
         <v>0.127</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D14">
         <v>24</v>
@@ -2227,7 +2227,7 @@
         <v>0.89705999999999997</v>
       </c>
       <c r="L14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>0.127</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D15">
         <v>24</v>
@@ -2321,7 +2321,7 @@
         <v>0.68102700000000005</v>
       </c>
       <c r="L15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>0.127</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D16">
         <v>24</v>
@@ -2415,7 +2415,7 @@
         <v>0.65257900000000002</v>
       </c>
       <c r="L16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -2480,7 +2480,7 @@
         <v>0.127</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D17">
         <v>24</v>
@@ -2509,7 +2509,7 @@
         <v>0.84979099999999996</v>
       </c>
       <c r="L17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -2574,7 +2574,7 @@
         <v>0.127</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D18">
         <v>24</v>
@@ -2603,7 +2603,7 @@
         <v>0.56504500000000002</v>
       </c>
       <c r="L18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -2668,7 +2668,7 @@
         <v>0.127</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D19">
         <v>24</v>
@@ -2697,7 +2697,7 @@
         <v>0.56398300000000001</v>
       </c>
       <c r="L19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M19">
         <v>0</v>

--- a/pITD-pion/expdata/1002.xlsx
+++ b/pITD-pion/expdata/1002.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/barryp/work/JAM/fitpack2/database/pITD-pion/expdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9573E19-F555-9D48-A23F-53FF81E19820}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38CD0E2C-E649-3047-AC45-2991475124D0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7420" yWindow="5880" windowWidth="26440" windowHeight="15440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5280" yWindow="5080" windowWidth="26440" windowHeight="15440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1002" sheetId="1" r:id="rId1"/>
@@ -605,8 +605,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -964,8 +965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="W16" sqref="W16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1101,59 +1102,59 @@
       <c r="L2" t="s">
         <v>27</v>
       </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="R2">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
-      <c r="AD2">
-        <v>0</v>
+      <c r="M2" s="1">
+        <v>2.2503720000000001E-8</v>
+      </c>
+      <c r="N2" s="1">
+        <v>1.3466909999999999E-7</v>
+      </c>
+      <c r="O2" s="1">
+        <v>7.2051670000000004E-7</v>
+      </c>
+      <c r="P2" s="1">
+        <v>7.4291560000000006E-8</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>5.2225609999999995E-7</v>
+      </c>
+      <c r="R2" s="1">
+        <v>9.7650959999999998E-7</v>
+      </c>
+      <c r="S2" s="1">
+        <v>1.3904019999999999E-7</v>
+      </c>
+      <c r="T2" s="1">
+        <v>3.2152189999999999E-7</v>
+      </c>
+      <c r="U2" s="1">
+        <v>7.1422199999999995E-7</v>
+      </c>
+      <c r="V2" s="1">
+        <v>2.06821E-7</v>
+      </c>
+      <c r="W2" s="1">
+        <v>2.4084999999999999E-7</v>
+      </c>
+      <c r="X2" s="1">
+        <v>3.148357E-7</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>1.9801950000000001E-7</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>1.959896E-7</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>4.5100480000000001E-8</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>2.5024710000000002E-7</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>1.4611700000000001E-7</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>8.0024150000000004E-8</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.2">
@@ -1195,59 +1196,59 @@
       <c r="L3" t="s">
         <v>27</v>
       </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>1.2999999999999999E-5</v>
-      </c>
-      <c r="O3">
-        <v>3.9999999999999998E-6</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>2.9E-5</v>
-      </c>
-      <c r="R3">
-        <v>-4.1E-5</v>
-      </c>
-      <c r="S3">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="T3">
-        <v>1.2E-5</v>
-      </c>
-      <c r="U3">
-        <v>-4.5000000000000003E-5</v>
-      </c>
-      <c r="V3">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="W3">
-        <v>7.9999999999999996E-6</v>
-      </c>
-      <c r="X3">
-        <v>-4.8999999999999998E-5</v>
-      </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
-      <c r="Z3">
-        <v>3.9999999999999998E-6</v>
-      </c>
-      <c r="AA3">
-        <v>-5.0000000000000002E-5</v>
-      </c>
-      <c r="AB3">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="AC3">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="AD3">
-        <v>-5.3000000000000001E-5</v>
+      <c r="M3" s="1">
+        <v>1.3466909999999999E-7</v>
+      </c>
+      <c r="N3" s="1">
+        <v>1.3479269999999999E-5</v>
+      </c>
+      <c r="O3" s="1">
+        <v>3.7614629999999999E-6</v>
+      </c>
+      <c r="P3" s="1">
+        <v>4.609494E-7</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>2.928967E-5</v>
+      </c>
+      <c r="R3" s="1">
+        <v>-4.1487240000000001E-5</v>
+      </c>
+      <c r="S3" s="1">
+        <v>8.0495890000000001E-7</v>
+      </c>
+      <c r="T3" s="1">
+        <v>1.1899149999999999E-5</v>
+      </c>
+      <c r="U3" s="1">
+        <v>-4.4775460000000002E-5</v>
+      </c>
+      <c r="V3" s="1">
+        <v>1.1154350000000001E-6</v>
+      </c>
+      <c r="W3" s="1">
+        <v>7.5374250000000001E-6</v>
+      </c>
+      <c r="X3" s="1">
+        <v>-4.8962840000000001E-5</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>1.5830300000000001E-7</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>3.532192E-6</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>-5.0220550000000001E-5</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>1.2047089999999999E-6</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>9.5569610000000006E-7</v>
+      </c>
+      <c r="AD3" s="1">
+        <v>-5.2848259999999997E-5</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.2">
@@ -1289,59 +1290,59 @@
       <c r="L4" t="s">
         <v>27</v>
       </c>
-      <c r="M4">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="N4">
-        <v>3.9999999999999998E-6</v>
-      </c>
-      <c r="O4">
-        <v>2.405E-3</v>
-      </c>
-      <c r="P4">
-        <v>3.0000000000000001E-6</v>
-      </c>
-      <c r="Q4">
-        <v>1.2300000000000001E-4</v>
-      </c>
-      <c r="R4">
-        <v>2.8670000000000002E-3</v>
-      </c>
-      <c r="S4">
-        <v>5.0000000000000004E-6</v>
-      </c>
-      <c r="T4">
-        <v>2.04E-4</v>
-      </c>
-      <c r="U4">
-        <v>2.552E-3</v>
-      </c>
-      <c r="V4">
-        <v>9.0000000000000002E-6</v>
-      </c>
-      <c r="W4">
-        <v>1.75E-4</v>
-      </c>
-      <c r="X4">
-        <v>2.091E-3</v>
-      </c>
-      <c r="Y4">
-        <v>7.9999999999999996E-6</v>
-      </c>
-      <c r="Z4">
-        <v>1.45E-4</v>
-      </c>
-      <c r="AA4">
-        <v>1.6149999999999999E-3</v>
-      </c>
-      <c r="AB4">
-        <v>1.2E-5</v>
-      </c>
-      <c r="AC4">
-        <v>1.12E-4</v>
-      </c>
-      <c r="AD4">
-        <v>1.3489999999999999E-3</v>
+      <c r="M4" s="1">
+        <v>7.2051670000000004E-7</v>
+      </c>
+      <c r="N4" s="1">
+        <v>3.7614629999999999E-6</v>
+      </c>
+      <c r="O4" s="1">
+        <v>2.4046649999999998E-3</v>
+      </c>
+      <c r="P4" s="1">
+        <v>2.630146E-6</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>1.231413E-4</v>
+      </c>
+      <c r="R4" s="1">
+        <v>2.8672340000000002E-3</v>
+      </c>
+      <c r="S4" s="1">
+        <v>5.1840179999999999E-6</v>
+      </c>
+      <c r="T4" s="1">
+        <v>2.0369130000000001E-4</v>
+      </c>
+      <c r="U4" s="1">
+        <v>2.5515830000000001E-3</v>
+      </c>
+      <c r="V4" s="1">
+        <v>8.5309559999999998E-6</v>
+      </c>
+      <c r="W4" s="1">
+        <v>1.7516849999999999E-4</v>
+      </c>
+      <c r="X4" s="1">
+        <v>2.0914089999999998E-3</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>8.4207360000000007E-6</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>1.4470149999999999E-4</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>1.614852E-3</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>1.21496E-5</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>1.12285E-4</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>1.3494049999999999E-3</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.2">
@@ -1383,59 +1384,59 @@
       <c r="L5" t="s">
         <v>27</v>
       </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>3.0000000000000001E-6</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="R5">
-        <v>3.9999999999999998E-6</v>
-      </c>
-      <c r="S5">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="T5">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="U5">
-        <v>3.0000000000000001E-6</v>
-      </c>
-      <c r="V5">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="W5">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="X5">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="Y5">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="Z5">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="AA5">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="AB5">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="AC5">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="AD5">
-        <v>3.0000000000000001E-6</v>
+      <c r="M5" s="1">
+        <v>7.4291560000000006E-8</v>
+      </c>
+      <c r="N5" s="1">
+        <v>4.609494E-7</v>
+      </c>
+      <c r="O5" s="1">
+        <v>2.630146E-6</v>
+      </c>
+      <c r="P5" s="1">
+        <v>2.7097089999999998E-7</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>1.9616840000000002E-6</v>
+      </c>
+      <c r="R5" s="1">
+        <v>3.5810070000000001E-6</v>
+      </c>
+      <c r="S5" s="1">
+        <v>5.4357450000000001E-7</v>
+      </c>
+      <c r="T5" s="1">
+        <v>1.8212809999999999E-6</v>
+      </c>
+      <c r="U5" s="1">
+        <v>3.0871090000000001E-6</v>
+      </c>
+      <c r="V5" s="1">
+        <v>8.4738559999999999E-7</v>
+      </c>
+      <c r="W5" s="1">
+        <v>1.755024E-6</v>
+      </c>
+      <c r="X5" s="1">
+        <v>2.2543690000000002E-6</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>8.3787550000000002E-7</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>1.8287519999999999E-6</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>1.8638329999999999E-6</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>1.0158009999999999E-6</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>1.79576E-6</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>2.6695200000000002E-6</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.2">
@@ -1477,59 +1478,59 @@
       <c r="L6" t="s">
         <v>27</v>
       </c>
-      <c r="M6">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="N6">
-        <v>2.9E-5</v>
-      </c>
-      <c r="O6">
-        <v>1.2300000000000001E-4</v>
-      </c>
-      <c r="P6">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="Q6">
-        <v>2.3599999999999999E-4</v>
-      </c>
-      <c r="R6">
-        <v>-4.6E-5</v>
-      </c>
-      <c r="S6">
-        <v>3.9999999999999998E-6</v>
-      </c>
-      <c r="T6">
-        <v>1.13E-4</v>
-      </c>
-      <c r="U6">
-        <v>-5.5999999999999999E-5</v>
-      </c>
-      <c r="V6">
-        <v>6.0000000000000002E-6</v>
-      </c>
-      <c r="W6">
-        <v>9.8999999999999994E-5</v>
-      </c>
-      <c r="X6">
-        <v>-5.5000000000000002E-5</v>
-      </c>
-      <c r="Y6">
-        <v>6.0000000000000002E-6</v>
-      </c>
-      <c r="Z6">
-        <v>9.5000000000000005E-5</v>
-      </c>
-      <c r="AA6">
-        <v>-5.3000000000000001E-5</v>
-      </c>
-      <c r="AB6">
-        <v>7.9999999999999996E-6</v>
-      </c>
-      <c r="AC6">
-        <v>9.0000000000000006E-5</v>
-      </c>
-      <c r="AD6">
-        <v>-4.8000000000000001E-5</v>
+      <c r="M6" s="1">
+        <v>5.2225609999999995E-7</v>
+      </c>
+      <c r="N6" s="1">
+        <v>2.928967E-5</v>
+      </c>
+      <c r="O6" s="1">
+        <v>1.231413E-4</v>
+      </c>
+      <c r="P6" s="1">
+        <v>1.9616840000000002E-6</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>2.355495E-4</v>
+      </c>
+      <c r="R6" s="1">
+        <v>-4.6118359999999999E-5</v>
+      </c>
+      <c r="S6" s="1">
+        <v>3.8333579999999997E-6</v>
+      </c>
+      <c r="T6" s="1">
+        <v>1.1270919999999999E-4</v>
+      </c>
+      <c r="U6" s="1">
+        <v>-5.625777E-5</v>
+      </c>
+      <c r="V6" s="1">
+        <v>5.8034929999999996E-6</v>
+      </c>
+      <c r="W6" s="1">
+        <v>9.8982870000000002E-5</v>
+      </c>
+      <c r="X6" s="1">
+        <v>-5.5385050000000003E-5</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>5.6482609999999998E-6</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>9.5349890000000006E-5</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>-5.2796359999999999E-5</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>8.0349929999999993E-6</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>8.9924030000000004E-5</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>-4.7789579999999999E-5</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.2">
@@ -1571,59 +1572,59 @@
       <c r="L7" t="s">
         <v>27</v>
       </c>
-      <c r="M7">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="N7">
-        <v>-4.1E-5</v>
-      </c>
-      <c r="O7">
-        <v>2.8670000000000002E-3</v>
-      </c>
-      <c r="P7">
-        <v>3.9999999999999998E-6</v>
-      </c>
-      <c r="Q7">
-        <v>-4.6E-5</v>
-      </c>
-      <c r="R7">
-        <v>8.9169999999999996E-3</v>
-      </c>
-      <c r="S7">
-        <v>7.9999999999999996E-6</v>
-      </c>
-      <c r="T7">
-        <v>2.3800000000000001E-4</v>
-      </c>
-      <c r="U7">
-        <v>8.4589999999999995E-3</v>
-      </c>
-      <c r="V7">
-        <v>1.4E-5</v>
-      </c>
-      <c r="W7">
-        <v>2.81E-4</v>
-      </c>
-      <c r="X7">
-        <v>7.6959999999999997E-3</v>
-      </c>
-      <c r="Y7">
-        <v>1.1E-5</v>
-      </c>
-      <c r="Z7">
-        <v>2.8299999999999999E-4</v>
-      </c>
-      <c r="AA7">
-        <v>6.8970000000000004E-3</v>
-      </c>
-      <c r="AB7">
-        <v>1.5999999999999999E-5</v>
-      </c>
-      <c r="AC7">
-        <v>2.7399999999999999E-4</v>
-      </c>
-      <c r="AD7">
-        <v>6.6449999999999999E-3</v>
+      <c r="M7" s="1">
+        <v>9.7650959999999998E-7</v>
+      </c>
+      <c r="N7" s="1">
+        <v>-4.1487240000000001E-5</v>
+      </c>
+      <c r="O7" s="1">
+        <v>2.8672340000000002E-3</v>
+      </c>
+      <c r="P7" s="1">
+        <v>3.5810070000000001E-6</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>-4.6118359999999999E-5</v>
+      </c>
+      <c r="R7" s="1">
+        <v>8.9174809999999997E-3</v>
+      </c>
+      <c r="S7" s="1">
+        <v>7.6560820000000002E-6</v>
+      </c>
+      <c r="T7" s="1">
+        <v>2.3755959999999999E-4</v>
+      </c>
+      <c r="U7" s="1">
+        <v>8.4587840000000004E-3</v>
+      </c>
+      <c r="V7" s="1">
+        <v>1.400921E-5</v>
+      </c>
+      <c r="W7" s="1">
+        <v>2.812208E-4</v>
+      </c>
+      <c r="X7" s="1">
+        <v>7.6956259999999997E-3</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>1.0745409999999999E-5</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>2.8273680000000001E-4</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>6.8965629999999997E-3</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>1.593366E-5</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>2.7367009999999998E-4</v>
+      </c>
+      <c r="AD7" s="1">
+        <v>6.6451230000000002E-3</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.2">
@@ -1665,59 +1666,59 @@
       <c r="L8" t="s">
         <v>27</v>
       </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="O8">
-        <v>5.0000000000000004E-6</v>
-      </c>
-      <c r="P8">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="Q8">
-        <v>3.9999999999999998E-6</v>
-      </c>
-      <c r="R8">
-        <v>7.9999999999999996E-6</v>
-      </c>
-      <c r="S8">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="T8">
-        <v>5.0000000000000004E-6</v>
-      </c>
-      <c r="U8">
-        <v>7.9999999999999996E-6</v>
-      </c>
-      <c r="V8">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="W8">
-        <v>5.0000000000000004E-6</v>
-      </c>
-      <c r="X8">
-        <v>6.9999999999999999E-6</v>
-      </c>
-      <c r="Y8">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="Z8">
-        <v>6.0000000000000002E-6</v>
-      </c>
-      <c r="AA8">
-        <v>6.9999999999999999E-6</v>
-      </c>
-      <c r="AB8">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="AC8">
-        <v>6.0000000000000002E-6</v>
-      </c>
-      <c r="AD8">
-        <v>1.0000000000000001E-5</v>
+      <c r="M8" s="1">
+        <v>1.3904019999999999E-7</v>
+      </c>
+      <c r="N8" s="1">
+        <v>8.0495890000000001E-7</v>
+      </c>
+      <c r="O8" s="1">
+        <v>5.1840179999999999E-6</v>
+      </c>
+      <c r="P8" s="1">
+        <v>5.4357450000000001E-7</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>3.8333579999999997E-6</v>
+      </c>
+      <c r="R8" s="1">
+        <v>7.6560820000000002E-6</v>
+      </c>
+      <c r="S8" s="1">
+        <v>1.177565E-6</v>
+      </c>
+      <c r="T8" s="1">
+        <v>4.6879539999999998E-6</v>
+      </c>
+      <c r="U8" s="1">
+        <v>7.5258360000000002E-6</v>
+      </c>
+      <c r="V8" s="1">
+        <v>1.947118E-6</v>
+      </c>
+      <c r="W8" s="1">
+        <v>5.0960909999999998E-6</v>
+      </c>
+      <c r="X8" s="1">
+        <v>6.9151040000000002E-6</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>1.9932810000000002E-6</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>5.8046460000000003E-6</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>7.0890399999999996E-6</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>2.3316210000000002E-6</v>
+      </c>
+      <c r="AC8" s="1">
+        <v>6.062387E-6</v>
+      </c>
+      <c r="AD8" s="1">
+        <v>1.002719E-5</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.2">
@@ -1759,59 +1760,59 @@
       <c r="L9" t="s">
         <v>27</v>
       </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>1.2E-5</v>
-      </c>
-      <c r="O9">
-        <v>2.04E-4</v>
-      </c>
-      <c r="P9">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="Q9">
-        <v>1.13E-4</v>
-      </c>
-      <c r="R9">
-        <v>2.3800000000000001E-4</v>
-      </c>
-      <c r="S9">
-        <v>5.0000000000000004E-6</v>
-      </c>
-      <c r="T9">
-        <v>2.1000000000000001E-4</v>
-      </c>
-      <c r="U9">
-        <v>2.6800000000000001E-4</v>
-      </c>
-      <c r="V9">
-        <v>9.0000000000000002E-6</v>
-      </c>
-      <c r="W9">
-        <v>2.3499999999999999E-4</v>
-      </c>
-      <c r="X9">
-        <v>3.0600000000000001E-4</v>
-      </c>
-      <c r="Y9">
-        <v>9.0000000000000002E-6</v>
-      </c>
-      <c r="Z9">
-        <v>2.6200000000000003E-4</v>
-      </c>
-      <c r="AA9">
-        <v>3.3E-4</v>
-      </c>
-      <c r="AB9">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="AC9">
-        <v>2.81E-4</v>
-      </c>
-      <c r="AD9">
-        <v>3.6600000000000001E-4</v>
+      <c r="M9" s="1">
+        <v>3.2152189999999999E-7</v>
+      </c>
+      <c r="N9" s="1">
+        <v>1.1899149999999999E-5</v>
+      </c>
+      <c r="O9" s="1">
+        <v>2.0369130000000001E-4</v>
+      </c>
+      <c r="P9" s="1">
+        <v>1.8212809999999999E-6</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>1.1270919999999999E-4</v>
+      </c>
+      <c r="R9" s="1">
+        <v>2.3755959999999999E-4</v>
+      </c>
+      <c r="S9" s="1">
+        <v>4.6879539999999998E-6</v>
+      </c>
+      <c r="T9" s="1">
+        <v>2.0964040000000001E-4</v>
+      </c>
+      <c r="U9" s="1">
+        <v>2.6794399999999999E-4</v>
+      </c>
+      <c r="V9" s="1">
+        <v>8.7327399999999997E-6</v>
+      </c>
+      <c r="W9" s="1">
+        <v>2.350788E-4</v>
+      </c>
+      <c r="X9" s="1">
+        <v>3.0636379999999998E-4</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>8.6314360000000002E-6</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>2.6220459999999997E-4</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>3.2988949999999999E-4</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>1.043566E-5</v>
+      </c>
+      <c r="AC9" s="1">
+        <v>2.8111709999999998E-4</v>
+      </c>
+      <c r="AD9" s="1">
+        <v>3.6592040000000002E-4</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.2">
@@ -1853,59 +1854,59 @@
       <c r="L10" t="s">
         <v>27</v>
       </c>
-      <c r="M10">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="N10">
-        <v>-4.5000000000000003E-5</v>
-      </c>
-      <c r="O10">
-        <v>2.552E-3</v>
-      </c>
-      <c r="P10">
-        <v>3.0000000000000001E-6</v>
-      </c>
-      <c r="Q10">
-        <v>-5.5999999999999999E-5</v>
-      </c>
-      <c r="R10">
-        <v>8.4589999999999995E-3</v>
-      </c>
-      <c r="S10">
-        <v>7.9999999999999996E-6</v>
-      </c>
-      <c r="T10">
-        <v>2.6800000000000001E-4</v>
-      </c>
-      <c r="U10">
-        <v>8.352E-3</v>
-      </c>
-      <c r="V10">
-        <v>1.5E-5</v>
-      </c>
-      <c r="W10">
-        <v>3.4900000000000003E-4</v>
-      </c>
-      <c r="X10">
-        <v>8.012E-3</v>
-      </c>
-      <c r="Y10">
-        <v>1.4E-5</v>
-      </c>
-      <c r="Z10">
-        <v>3.9500000000000001E-4</v>
-      </c>
-      <c r="AA10">
-        <v>7.5770000000000004E-3</v>
-      </c>
-      <c r="AB10">
-        <v>1.5999999999999999E-5</v>
-      </c>
-      <c r="AC10">
-        <v>4.2499999999999998E-4</v>
-      </c>
-      <c r="AD10">
-        <v>7.6579999999999999E-3</v>
+      <c r="M10" s="1">
+        <v>7.1422199999999995E-7</v>
+      </c>
+      <c r="N10" s="1">
+        <v>-4.4775460000000002E-5</v>
+      </c>
+      <c r="O10" s="1">
+        <v>2.5515830000000001E-3</v>
+      </c>
+      <c r="P10" s="1">
+        <v>3.0871090000000001E-6</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>-5.625777E-5</v>
+      </c>
+      <c r="R10" s="1">
+        <v>8.4587840000000004E-3</v>
+      </c>
+      <c r="S10" s="1">
+        <v>7.5258360000000002E-6</v>
+      </c>
+      <c r="T10" s="1">
+        <v>2.6794399999999999E-4</v>
+      </c>
+      <c r="U10" s="1">
+        <v>8.3515900000000007E-3</v>
+      </c>
+      <c r="V10" s="1">
+        <v>1.4511949999999999E-5</v>
+      </c>
+      <c r="W10" s="1">
+        <v>3.490136E-4</v>
+      </c>
+      <c r="X10" s="1">
+        <v>8.0124289999999997E-3</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>1.422604E-5</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>3.954122E-4</v>
+      </c>
+      <c r="AA10" s="1">
+        <v>7.5774950000000001E-3</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>1.6004490000000002E-5</v>
+      </c>
+      <c r="AC10" s="1">
+        <v>4.24509E-4</v>
+      </c>
+      <c r="AD10" s="1">
+        <v>7.6575860000000001E-3</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.2">
@@ -1947,59 +1948,59 @@
       <c r="L11" t="s">
         <v>27</v>
       </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="O11">
-        <v>9.0000000000000002E-6</v>
-      </c>
-      <c r="P11">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="Q11">
-        <v>6.0000000000000002E-6</v>
-      </c>
-      <c r="R11">
-        <v>1.4E-5</v>
-      </c>
-      <c r="S11">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="T11">
-        <v>9.0000000000000002E-6</v>
-      </c>
-      <c r="U11">
-        <v>1.5E-5</v>
-      </c>
-      <c r="V11">
-        <v>3.0000000000000001E-6</v>
-      </c>
-      <c r="W11">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="X11">
-        <v>1.4E-5</v>
-      </c>
-      <c r="Y11">
-        <v>3.9999999999999998E-6</v>
-      </c>
-      <c r="Z11">
-        <v>1.2E-5</v>
-      </c>
-      <c r="AA11">
-        <v>1.5E-5</v>
-      </c>
-      <c r="AB11">
-        <v>3.9999999999999998E-6</v>
-      </c>
-      <c r="AC11">
-        <v>1.2999999999999999E-5</v>
-      </c>
-      <c r="AD11">
-        <v>2.1999999999999999E-5</v>
+      <c r="M11" s="1">
+        <v>2.06821E-7</v>
+      </c>
+      <c r="N11" s="1">
+        <v>1.1154350000000001E-6</v>
+      </c>
+      <c r="O11" s="1">
+        <v>8.5309559999999998E-6</v>
+      </c>
+      <c r="P11" s="1">
+        <v>8.4738559999999999E-7</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>5.8034929999999996E-6</v>
+      </c>
+      <c r="R11" s="1">
+        <v>1.400921E-5</v>
+      </c>
+      <c r="S11" s="1">
+        <v>1.947118E-6</v>
+      </c>
+      <c r="T11" s="1">
+        <v>8.7327399999999997E-6</v>
+      </c>
+      <c r="U11" s="1">
+        <v>1.4511949999999999E-5</v>
+      </c>
+      <c r="V11" s="1">
+        <v>3.4057580000000002E-6</v>
+      </c>
+      <c r="W11" s="1">
+        <v>1.022798E-5</v>
+      </c>
+      <c r="X11" s="1">
+        <v>1.43893E-5</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>3.6246809999999999E-6</v>
+      </c>
+      <c r="Z11" s="1">
+        <v>1.2241200000000001E-5</v>
+      </c>
+      <c r="AA11" s="1">
+        <v>1.5479629999999999E-5</v>
+      </c>
+      <c r="AB11" s="1">
+        <v>4.2046399999999998E-6</v>
+      </c>
+      <c r="AC11" s="1">
+        <v>1.320445E-5</v>
+      </c>
+      <c r="AD11" s="1">
+        <v>2.1676210000000002E-5</v>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.2">
@@ -2041,59 +2042,59 @@
       <c r="L12" t="s">
         <v>27</v>
       </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>7.9999999999999996E-6</v>
-      </c>
-      <c r="O12">
-        <v>1.75E-4</v>
-      </c>
-      <c r="P12">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="Q12">
-        <v>9.8999999999999994E-5</v>
-      </c>
-      <c r="R12">
-        <v>2.81E-4</v>
-      </c>
-      <c r="S12">
-        <v>5.0000000000000004E-6</v>
-      </c>
-      <c r="T12">
-        <v>2.3499999999999999E-4</v>
-      </c>
-      <c r="U12">
-        <v>3.4900000000000003E-4</v>
-      </c>
-      <c r="V12">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="W12">
-        <v>2.9E-4</v>
-      </c>
-      <c r="X12">
-        <v>4.3199999999999998E-4</v>
-      </c>
-      <c r="Y12">
-        <v>1.1E-5</v>
-      </c>
-      <c r="Z12">
-        <v>3.4900000000000003E-4</v>
-      </c>
-      <c r="AA12">
-        <v>4.9299999999999995E-4</v>
-      </c>
-      <c r="AB12">
-        <v>1.2999999999999999E-5</v>
-      </c>
-      <c r="AC12">
-        <v>3.9599999999999998E-4</v>
-      </c>
-      <c r="AD12">
-        <v>5.6499999999999996E-4</v>
+      <c r="M12" s="1">
+        <v>2.4084999999999999E-7</v>
+      </c>
+      <c r="N12" s="1">
+        <v>7.5374250000000001E-6</v>
+      </c>
+      <c r="O12" s="1">
+        <v>1.7516849999999999E-4</v>
+      </c>
+      <c r="P12" s="1">
+        <v>1.755024E-6</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>9.8982870000000002E-5</v>
+      </c>
+      <c r="R12" s="1">
+        <v>2.812208E-4</v>
+      </c>
+      <c r="S12" s="1">
+        <v>5.0960909999999998E-6</v>
+      </c>
+      <c r="T12" s="1">
+        <v>2.350788E-4</v>
+      </c>
+      <c r="U12" s="1">
+        <v>3.490136E-4</v>
+      </c>
+      <c r="V12" s="1">
+        <v>1.022798E-5</v>
+      </c>
+      <c r="W12" s="1">
+        <v>2.9044390000000002E-4</v>
+      </c>
+      <c r="X12" s="1">
+        <v>4.3236959999999998E-4</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>1.116584E-5</v>
+      </c>
+      <c r="Z12" s="1">
+        <v>3.4939059999999997E-4</v>
+      </c>
+      <c r="AA12" s="1">
+        <v>4.929178E-4</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>1.269244E-5</v>
+      </c>
+      <c r="AC12" s="1">
+        <v>3.9589220000000002E-4</v>
+      </c>
+      <c r="AD12" s="1">
+        <v>5.6483870000000004E-4</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.2">
@@ -2135,59 +2136,59 @@
       <c r="L13" t="s">
         <v>27</v>
       </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>-4.8999999999999998E-5</v>
-      </c>
-      <c r="O13">
-        <v>2.091E-3</v>
-      </c>
-      <c r="P13">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="Q13">
-        <v>-5.5000000000000002E-5</v>
-      </c>
-      <c r="R13">
-        <v>7.6959999999999997E-3</v>
-      </c>
-      <c r="S13">
-        <v>6.9999999999999999E-6</v>
-      </c>
-      <c r="T13">
-        <v>3.0600000000000001E-4</v>
-      </c>
-      <c r="U13">
-        <v>8.012E-3</v>
-      </c>
-      <c r="V13">
-        <v>1.4E-5</v>
-      </c>
-      <c r="W13">
-        <v>4.3199999999999998E-4</v>
-      </c>
-      <c r="X13">
-        <v>8.2769999999999996E-3</v>
-      </c>
-      <c r="Y13">
-        <v>1.8E-5</v>
-      </c>
-      <c r="Z13">
-        <v>5.3899999999999998E-4</v>
-      </c>
-      <c r="AA13">
-        <v>8.4440000000000001E-3</v>
-      </c>
-      <c r="AB13">
-        <v>1.5999999999999999E-5</v>
-      </c>
-      <c r="AC13">
-        <v>6.2200000000000005E-4</v>
-      </c>
-      <c r="AD13">
-        <v>9.0900000000000009E-3</v>
+      <c r="M13" s="1">
+        <v>3.148357E-7</v>
+      </c>
+      <c r="N13" s="1">
+        <v>-4.8962840000000001E-5</v>
+      </c>
+      <c r="O13" s="1">
+        <v>2.0914089999999998E-3</v>
+      </c>
+      <c r="P13" s="1">
+        <v>2.2543690000000002E-6</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>-5.5385050000000003E-5</v>
+      </c>
+      <c r="R13" s="1">
+        <v>7.6956259999999997E-3</v>
+      </c>
+      <c r="S13" s="1">
+        <v>6.9151040000000002E-6</v>
+      </c>
+      <c r="T13" s="1">
+        <v>3.0636379999999998E-4</v>
+      </c>
+      <c r="U13" s="1">
+        <v>8.0124289999999997E-3</v>
+      </c>
+      <c r="V13" s="1">
+        <v>1.43893E-5</v>
+      </c>
+      <c r="W13" s="1">
+        <v>4.3236959999999998E-4</v>
+      </c>
+      <c r="X13" s="1">
+        <v>8.2766430000000002E-3</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>1.8205020000000001E-5</v>
+      </c>
+      <c r="Z13" s="1">
+        <v>5.3892339999999999E-4</v>
+      </c>
+      <c r="AA13" s="1">
+        <v>8.4439040000000003E-3</v>
+      </c>
+      <c r="AB13" s="1">
+        <v>1.6117449999999999E-5</v>
+      </c>
+      <c r="AC13" s="1">
+        <v>6.2184220000000001E-4</v>
+      </c>
+      <c r="AD13" s="1">
+        <v>9.0898000000000003E-3</v>
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.2">
@@ -2229,59 +2230,59 @@
       <c r="L14" t="s">
         <v>27</v>
       </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>7.9999999999999996E-6</v>
-      </c>
-      <c r="P14">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="Q14">
-        <v>6.0000000000000002E-6</v>
-      </c>
-      <c r="R14">
-        <v>1.1E-5</v>
-      </c>
-      <c r="S14">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="T14">
-        <v>9.0000000000000002E-6</v>
-      </c>
-      <c r="U14">
-        <v>1.4E-5</v>
-      </c>
-      <c r="V14">
-        <v>3.9999999999999998E-6</v>
-      </c>
-      <c r="W14">
-        <v>1.1E-5</v>
-      </c>
-      <c r="X14">
-        <v>1.8E-5</v>
-      </c>
-      <c r="Y14">
-        <v>6.9999999999999999E-6</v>
-      </c>
-      <c r="Z14">
-        <v>1.5E-5</v>
-      </c>
-      <c r="AA14">
-        <v>2.0999999999999999E-5</v>
-      </c>
-      <c r="AB14">
-        <v>6.9999999999999999E-6</v>
-      </c>
-      <c r="AC14">
-        <v>1.5999999999999999E-5</v>
-      </c>
-      <c r="AD14">
-        <v>2.8E-5</v>
+      <c r="M14" s="1">
+        <v>1.9801950000000001E-7</v>
+      </c>
+      <c r="N14" s="1">
+        <v>1.5830300000000001E-7</v>
+      </c>
+      <c r="O14" s="1">
+        <v>8.4207360000000007E-6</v>
+      </c>
+      <c r="P14" s="1">
+        <v>8.3787550000000002E-7</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>5.6482609999999998E-6</v>
+      </c>
+      <c r="R14" s="1">
+        <v>1.0745409999999999E-5</v>
+      </c>
+      <c r="S14" s="1">
+        <v>1.9932810000000002E-6</v>
+      </c>
+      <c r="T14" s="1">
+        <v>8.6314360000000002E-6</v>
+      </c>
+      <c r="U14" s="1">
+        <v>1.422604E-5</v>
+      </c>
+      <c r="V14" s="1">
+        <v>3.6246809999999999E-6</v>
+      </c>
+      <c r="W14" s="1">
+        <v>1.116584E-5</v>
+      </c>
+      <c r="X14" s="1">
+        <v>1.8205020000000001E-5</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>6.5127329999999998E-6</v>
+      </c>
+      <c r="Z14" s="1">
+        <v>1.4744499999999999E-5</v>
+      </c>
+      <c r="AA14" s="1">
+        <v>2.1073170000000001E-5</v>
+      </c>
+      <c r="AB14" s="1">
+        <v>7.2825379999999999E-6</v>
+      </c>
+      <c r="AC14" s="1">
+        <v>1.6199140000000002E-5</v>
+      </c>
+      <c r="AD14" s="1">
+        <v>2.8457800000000001E-5</v>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.2">
@@ -2323,59 +2324,59 @@
       <c r="L15" t="s">
         <v>27</v>
       </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>3.9999999999999998E-6</v>
-      </c>
-      <c r="O15">
-        <v>1.45E-4</v>
-      </c>
-      <c r="P15">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="Q15">
-        <v>9.5000000000000005E-5</v>
-      </c>
-      <c r="R15">
-        <v>2.8299999999999999E-4</v>
-      </c>
-      <c r="S15">
-        <v>6.0000000000000002E-6</v>
-      </c>
-      <c r="T15">
-        <v>2.6200000000000003E-4</v>
-      </c>
-      <c r="U15">
-        <v>3.9500000000000001E-4</v>
-      </c>
-      <c r="V15">
-        <v>1.2E-5</v>
-      </c>
-      <c r="W15">
-        <v>3.4900000000000003E-4</v>
-      </c>
-      <c r="X15">
-        <v>5.3899999999999998E-4</v>
-      </c>
-      <c r="Y15">
-        <v>1.5E-5</v>
-      </c>
-      <c r="Z15">
-        <v>4.4999999999999999E-4</v>
-      </c>
-      <c r="AA15">
-        <v>6.5499999999999998E-4</v>
-      </c>
-      <c r="AB15">
-        <v>1.5999999999999999E-5</v>
-      </c>
-      <c r="AC15">
-        <v>5.3799999999999996E-4</v>
-      </c>
-      <c r="AD15">
-        <v>7.8299999999999995E-4</v>
+      <c r="M15" s="1">
+        <v>1.959896E-7</v>
+      </c>
+      <c r="N15" s="1">
+        <v>3.532192E-6</v>
+      </c>
+      <c r="O15" s="1">
+        <v>1.4470149999999999E-4</v>
+      </c>
+      <c r="P15" s="1">
+        <v>1.8287519999999999E-6</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>9.5349890000000006E-5</v>
+      </c>
+      <c r="R15" s="1">
+        <v>2.8273680000000001E-4</v>
+      </c>
+      <c r="S15" s="1">
+        <v>5.8046460000000003E-6</v>
+      </c>
+      <c r="T15" s="1">
+        <v>2.6220459999999997E-4</v>
+      </c>
+      <c r="U15" s="1">
+        <v>3.954122E-4</v>
+      </c>
+      <c r="V15" s="1">
+        <v>1.2241200000000001E-5</v>
+      </c>
+      <c r="W15" s="1">
+        <v>3.4939059999999997E-4</v>
+      </c>
+      <c r="X15" s="1">
+        <v>5.3892339999999999E-4</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>1.4744499999999999E-5</v>
+      </c>
+      <c r="Z15" s="1">
+        <v>4.5034810000000003E-4</v>
+      </c>
+      <c r="AA15" s="1">
+        <v>6.5530079999999999E-4</v>
+      </c>
+      <c r="AB15" s="1">
+        <v>1.5995729999999999E-5</v>
+      </c>
+      <c r="AC15" s="1">
+        <v>5.3768809999999996E-4</v>
+      </c>
+      <c r="AD15" s="1">
+        <v>7.8251389999999996E-4</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.2">
@@ -2417,59 +2418,59 @@
       <c r="L16" t="s">
         <v>27</v>
       </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <v>-5.0000000000000002E-5</v>
-      </c>
-      <c r="O16">
-        <v>1.6149999999999999E-3</v>
-      </c>
-      <c r="P16">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="Q16">
-        <v>-5.3000000000000001E-5</v>
-      </c>
-      <c r="R16">
-        <v>6.8970000000000004E-3</v>
-      </c>
-      <c r="S16">
-        <v>6.9999999999999999E-6</v>
-      </c>
-      <c r="T16">
-        <v>3.3E-4</v>
-      </c>
-      <c r="U16">
-        <v>7.5770000000000004E-3</v>
-      </c>
-      <c r="V16">
-        <v>1.5E-5</v>
-      </c>
-      <c r="W16">
-        <v>4.9299999999999995E-4</v>
-      </c>
-      <c r="X16">
-        <v>8.4440000000000001E-3</v>
-      </c>
-      <c r="Y16">
-        <v>2.0999999999999999E-5</v>
-      </c>
-      <c r="Z16">
-        <v>6.5499999999999998E-4</v>
-      </c>
-      <c r="AA16">
-        <v>9.3880000000000005E-3</v>
-      </c>
-      <c r="AB16">
-        <v>1.5999999999999999E-5</v>
-      </c>
-      <c r="AC16">
-        <v>7.9699999999999997E-4</v>
-      </c>
-      <c r="AD16">
-        <v>1.09E-2</v>
+      <c r="M16" s="1">
+        <v>4.5100480000000001E-8</v>
+      </c>
+      <c r="N16" s="1">
+        <v>-5.0220550000000001E-5</v>
+      </c>
+      <c r="O16" s="1">
+        <v>1.614852E-3</v>
+      </c>
+      <c r="P16" s="1">
+        <v>1.8638329999999999E-6</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>-5.2796359999999999E-5</v>
+      </c>
+      <c r="R16" s="1">
+        <v>6.8965629999999997E-3</v>
+      </c>
+      <c r="S16" s="1">
+        <v>7.0890399999999996E-6</v>
+      </c>
+      <c r="T16" s="1">
+        <v>3.2988949999999999E-4</v>
+      </c>
+      <c r="U16" s="1">
+        <v>7.5774950000000001E-3</v>
+      </c>
+      <c r="V16" s="1">
+        <v>1.5479629999999999E-5</v>
+      </c>
+      <c r="W16" s="1">
+        <v>4.929178E-4</v>
+      </c>
+      <c r="X16" s="1">
+        <v>8.4439040000000003E-3</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>2.1073170000000001E-5</v>
+      </c>
+      <c r="Z16" s="1">
+        <v>6.5530079999999999E-4</v>
+      </c>
+      <c r="AA16" s="1">
+        <v>9.3875250000000007E-3</v>
+      </c>
+      <c r="AB16" s="1">
+        <v>1.5577949999999999E-5</v>
+      </c>
+      <c r="AC16" s="1">
+        <v>7.9715489999999999E-4</v>
+      </c>
+      <c r="AD16" s="1">
+        <v>1.089969E-2</v>
       </c>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.2">
@@ -2511,59 +2512,59 @@
       <c r="L17" t="s">
         <v>27</v>
       </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="O17">
-        <v>1.2E-5</v>
-      </c>
-      <c r="P17">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="Q17">
-        <v>7.9999999999999996E-6</v>
-      </c>
-      <c r="R17">
-        <v>1.5999999999999999E-5</v>
-      </c>
-      <c r="S17">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="T17">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="U17">
-        <v>1.5999999999999999E-5</v>
-      </c>
-      <c r="V17">
-        <v>3.9999999999999998E-6</v>
-      </c>
-      <c r="W17">
-        <v>1.2999999999999999E-5</v>
-      </c>
-      <c r="X17">
-        <v>1.5999999999999999E-5</v>
-      </c>
-      <c r="Y17">
-        <v>6.9999999999999999E-6</v>
-      </c>
-      <c r="Z17">
-        <v>1.5999999999999999E-5</v>
-      </c>
-      <c r="AA17">
-        <v>1.5999999999999999E-5</v>
-      </c>
-      <c r="AB17">
-        <v>1.1E-5</v>
-      </c>
-      <c r="AC17">
-        <v>1.9000000000000001E-5</v>
-      </c>
-      <c r="AD17">
-        <v>2.0999999999999999E-5</v>
+      <c r="M17" s="1">
+        <v>2.5024710000000002E-7</v>
+      </c>
+      <c r="N17" s="1">
+        <v>1.2047089999999999E-6</v>
+      </c>
+      <c r="O17" s="1">
+        <v>1.21496E-5</v>
+      </c>
+      <c r="P17" s="1">
+        <v>1.0158009999999999E-6</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>8.0349929999999993E-6</v>
+      </c>
+      <c r="R17" s="1">
+        <v>1.593366E-5</v>
+      </c>
+      <c r="S17" s="1">
+        <v>2.3316210000000002E-6</v>
+      </c>
+      <c r="T17" s="1">
+        <v>1.043566E-5</v>
+      </c>
+      <c r="U17" s="1">
+        <v>1.6004490000000002E-5</v>
+      </c>
+      <c r="V17" s="1">
+        <v>4.2046399999999998E-6</v>
+      </c>
+      <c r="W17" s="1">
+        <v>1.269244E-5</v>
+      </c>
+      <c r="X17" s="1">
+        <v>1.6117449999999999E-5</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>7.2825379999999999E-6</v>
+      </c>
+      <c r="Z17" s="1">
+        <v>1.5995729999999999E-5</v>
+      </c>
+      <c r="AA17" s="1">
+        <v>1.5577949999999999E-5</v>
+      </c>
+      <c r="AB17" s="1">
+        <v>1.140013E-5</v>
+      </c>
+      <c r="AC17" s="1">
+        <v>1.8694920000000001E-5</v>
+      </c>
+      <c r="AD17" s="1">
+        <v>2.0605300000000001E-5</v>
       </c>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.2">
@@ -2605,59 +2606,59 @@
       <c r="L18" t="s">
         <v>27</v>
       </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="O18">
-        <v>1.12E-4</v>
-      </c>
-      <c r="P18">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="Q18">
-        <v>9.0000000000000006E-5</v>
-      </c>
-      <c r="R18">
-        <v>2.7399999999999999E-4</v>
-      </c>
-      <c r="S18">
-        <v>6.0000000000000002E-6</v>
-      </c>
-      <c r="T18">
-        <v>2.81E-4</v>
-      </c>
-      <c r="U18">
-        <v>4.2499999999999998E-4</v>
-      </c>
-      <c r="V18">
-        <v>1.2999999999999999E-5</v>
-      </c>
-      <c r="W18">
-        <v>3.9599999999999998E-4</v>
-      </c>
-      <c r="X18">
-        <v>6.2200000000000005E-4</v>
-      </c>
-      <c r="Y18">
-        <v>1.5999999999999999E-5</v>
-      </c>
-      <c r="Z18">
-        <v>5.3799999999999996E-4</v>
-      </c>
-      <c r="AA18">
-        <v>7.9699999999999997E-4</v>
-      </c>
-      <c r="AB18">
-        <v>1.9000000000000001E-5</v>
-      </c>
-      <c r="AC18">
-        <v>6.8000000000000005E-4</v>
-      </c>
-      <c r="AD18">
-        <v>9.9799999999999997E-4</v>
+      <c r="M18" s="1">
+        <v>1.4611700000000001E-7</v>
+      </c>
+      <c r="N18" s="1">
+        <v>9.5569610000000006E-7</v>
+      </c>
+      <c r="O18" s="1">
+        <v>1.12285E-4</v>
+      </c>
+      <c r="P18" s="1">
+        <v>1.79576E-6</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>8.9924030000000004E-5</v>
+      </c>
+      <c r="R18" s="1">
+        <v>2.7367009999999998E-4</v>
+      </c>
+      <c r="S18" s="1">
+        <v>6.062387E-6</v>
+      </c>
+      <c r="T18" s="1">
+        <v>2.8111709999999998E-4</v>
+      </c>
+      <c r="U18" s="1">
+        <v>4.24509E-4</v>
+      </c>
+      <c r="V18" s="1">
+        <v>1.320445E-5</v>
+      </c>
+      <c r="W18" s="1">
+        <v>3.9589220000000002E-4</v>
+      </c>
+      <c r="X18" s="1">
+        <v>6.2184220000000001E-4</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>1.6199140000000002E-5</v>
+      </c>
+      <c r="Z18" s="1">
+        <v>5.3768809999999996E-4</v>
+      </c>
+      <c r="AA18" s="1">
+        <v>7.9715489999999999E-4</v>
+      </c>
+      <c r="AB18" s="1">
+        <v>1.8694920000000001E-5</v>
+      </c>
+      <c r="AC18" s="1">
+        <v>6.7974110000000002E-4</v>
+      </c>
+      <c r="AD18" s="1">
+        <v>9.9788559999999999E-4</v>
       </c>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.2">
@@ -2699,59 +2700,59 @@
       <c r="L19" t="s">
         <v>27</v>
       </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19">
-        <v>-5.3000000000000001E-5</v>
-      </c>
-      <c r="O19">
-        <v>1.3489999999999999E-3</v>
-      </c>
-      <c r="P19">
-        <v>3.0000000000000001E-6</v>
-      </c>
-      <c r="Q19">
-        <v>-4.8000000000000001E-5</v>
-      </c>
-      <c r="R19">
-        <v>6.6449999999999999E-3</v>
-      </c>
-      <c r="S19">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="T19">
-        <v>3.6600000000000001E-4</v>
-      </c>
-      <c r="U19">
-        <v>7.6579999999999999E-3</v>
-      </c>
-      <c r="V19">
-        <v>2.1999999999999999E-5</v>
-      </c>
-      <c r="W19">
-        <v>5.6499999999999996E-4</v>
-      </c>
-      <c r="X19">
-        <v>9.0900000000000009E-3</v>
-      </c>
-      <c r="Y19">
-        <v>2.8E-5</v>
-      </c>
-      <c r="Z19">
-        <v>7.8299999999999995E-4</v>
-      </c>
-      <c r="AA19">
-        <v>1.09E-2</v>
-      </c>
-      <c r="AB19">
-        <v>2.0999999999999999E-5</v>
-      </c>
-      <c r="AC19">
-        <v>9.9799999999999997E-4</v>
-      </c>
-      <c r="AD19">
-        <v>1.3827000000000001E-2</v>
+      <c r="M19" s="1">
+        <v>8.0024150000000004E-8</v>
+      </c>
+      <c r="N19" s="1">
+        <v>-5.2848259999999997E-5</v>
+      </c>
+      <c r="O19" s="1">
+        <v>1.3494049999999999E-3</v>
+      </c>
+      <c r="P19" s="1">
+        <v>2.6695200000000002E-6</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>-4.7789579999999999E-5</v>
+      </c>
+      <c r="R19" s="1">
+        <v>6.6451230000000002E-3</v>
+      </c>
+      <c r="S19" s="1">
+        <v>1.002719E-5</v>
+      </c>
+      <c r="T19" s="1">
+        <v>3.6592040000000002E-4</v>
+      </c>
+      <c r="U19" s="1">
+        <v>7.6575860000000001E-3</v>
+      </c>
+      <c r="V19" s="1">
+        <v>2.1676210000000002E-5</v>
+      </c>
+      <c r="W19" s="1">
+        <v>5.6483870000000004E-4</v>
+      </c>
+      <c r="X19" s="1">
+        <v>9.0898000000000003E-3</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>2.8457800000000001E-5</v>
+      </c>
+      <c r="Z19" s="1">
+        <v>7.8251389999999996E-4</v>
+      </c>
+      <c r="AA19" s="1">
+        <v>1.089969E-2</v>
+      </c>
+      <c r="AB19" s="1">
+        <v>2.0605300000000001E-5</v>
+      </c>
+      <c r="AC19" s="1">
+        <v>9.9788559999999999E-4</v>
+      </c>
+      <c r="AD19" s="1">
+        <v>1.3827249999999999E-2</v>
       </c>
     </row>
   </sheetData>
